--- a/dreamforce/DF14_Sessions.xlsx
+++ b/dreamforce/DF14_Sessions.xlsx
@@ -11021,6 +11021,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H1100" totalsRowShown="0">
   <autoFilter ref="A1:H1100"/>
+  <sortState ref="A2:H1100">
+    <sortCondition ref="A1"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="ID"/>
@@ -11325,7 +11328,7 @@
   <dimension ref="A1:H1100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35340,175 +35343,179 @@
       <c r="G1070" s="2"/>
       <c r="H1070" s="2"/>
     </row>
-    <row r="1071" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1071" s="2" t="s">
-        <v>3639</v>
+    <row r="1071" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1071" s="2">
+        <v>1071</v>
       </c>
       <c r="B1071" s="2" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="C1071" s="4" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="D1071" s="2" t="s">
-        <v>3097</v>
-      </c>
-      <c r="E1071" s="2"/>
-      <c r="F1071" s="2" t="s">
-        <v>3205</v>
-      </c>
+        <v>3100</v>
+      </c>
+      <c r="E1071" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F1071" s="2"/>
       <c r="G1071" s="2" t="s">
-        <v>3311</v>
+        <v>3242</v>
       </c>
       <c r="H1071" s="2"/>
     </row>
-    <row r="1072" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A1072" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B1072" s="2" t="s">
-        <v>3098</v>
+        <v>3101</v>
       </c>
       <c r="C1072" s="4" t="s">
-        <v>3099</v>
+        <v>3640</v>
       </c>
       <c r="D1072" s="2" t="s">
-        <v>3100</v>
-      </c>
-      <c r="E1072" s="2" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E1072" s="2"/>
+      <c r="F1072" s="2"/>
+      <c r="G1072" s="2"/>
+      <c r="H1072" s="2"/>
+    </row>
+    <row r="1073" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1073" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B1073" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C1073" s="4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D1073" s="2" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E1073" s="2" t="s">
         <v>3199</v>
       </c>
-      <c r="F1072" s="2"/>
-      <c r="G1072" s="2" t="s">
-        <v>3242</v>
-      </c>
-      <c r="H1072" s="2"/>
-    </row>
-    <row r="1073" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1073" s="2">
-        <v>1072</v>
-      </c>
-      <c r="B1073" s="2" t="s">
-        <v>3101</v>
-      </c>
-      <c r="C1073" s="4" t="s">
-        <v>3640</v>
-      </c>
-      <c r="D1073" s="2" t="s">
-        <v>3641</v>
-      </c>
-      <c r="E1073" s="2"/>
-      <c r="F1073" s="2"/>
-      <c r="G1073" s="2"/>
+      <c r="F1073" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="G1073" s="2" t="s">
+        <v>3391</v>
+      </c>
       <c r="H1073" s="2"/>
     </row>
-    <row r="1074" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A1074" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B1074" s="2" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="C1074" s="4" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="D1074" s="2" t="s">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="E1074" s="2" t="s">
         <v>3199</v>
       </c>
       <c r="F1074" s="2" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="G1074" s="2" t="s">
-        <v>3391</v>
-      </c>
-      <c r="H1074" s="2"/>
-    </row>
-    <row r="1075" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+        <v>3200</v>
+      </c>
+      <c r="H1074" s="2" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A1075" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B1075" s="2" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="C1075" s="4" t="s">
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="D1075" s="2" t="s">
-        <v>3107</v>
-      </c>
-      <c r="E1075" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E1075" s="2"/>
+      <c r="F1075" s="2"/>
+      <c r="G1075" s="2" t="s">
+        <v>3421</v>
+      </c>
+      <c r="H1075" s="2" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1076" s="2">
+        <v>1076</v>
+      </c>
+      <c r="B1076" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C1076" s="4" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E1076" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F1076" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G1076" s="2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="H1076" s="2" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1077" s="2">
+        <v>1077</v>
+      </c>
+      <c r="B1077" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C1077" s="4" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>3116</v>
+      </c>
+      <c r="E1077" s="2" t="s">
         <v>3199</v>
       </c>
-      <c r="F1075" s="2" t="s">
-        <v>3192</v>
-      </c>
-      <c r="G1075" s="2" t="s">
-        <v>3200</v>
-      </c>
-      <c r="H1075" s="2" t="s">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A1076" s="2">
-        <v>1075</v>
-      </c>
-      <c r="B1076" s="2" t="s">
-        <v>3108</v>
-      </c>
-      <c r="C1076" s="4" t="s">
-        <v>3109</v>
-      </c>
-      <c r="D1076" s="2" t="s">
-        <v>3110</v>
-      </c>
-      <c r="E1076" s="2"/>
-      <c r="F1076" s="2"/>
-      <c r="G1076" s="2" t="s">
-        <v>3421</v>
-      </c>
-      <c r="H1076" s="2" t="s">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1077" s="2">
-        <v>1076</v>
-      </c>
-      <c r="B1077" s="2" t="s">
-        <v>3111</v>
-      </c>
-      <c r="C1077" s="4" t="s">
-        <v>3112</v>
-      </c>
-      <c r="D1077" s="2" t="s">
-        <v>3113</v>
-      </c>
-      <c r="E1077" s="2" t="s">
-        <v>3210</v>
-      </c>
       <c r="F1077" s="2" t="s">
-        <v>3244</v>
+        <v>3319</v>
       </c>
       <c r="G1077" s="2" t="s">
-        <v>3288</v>
+        <v>3558</v>
       </c>
       <c r="H1077" s="2" t="s">
-        <v>3557</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="1078" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1078" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B1078" s="2" t="s">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="C1078" s="4" t="s">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="D1078" s="2" t="s">
         <v>3116</v>
@@ -35526,181 +35533,177 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A1079" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B1079" s="2" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="C1079" s="4" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="D1079" s="2" t="s">
-        <v>3116</v>
-      </c>
-      <c r="E1079" s="2" t="s">
-        <v>3199</v>
-      </c>
+        <v>3121</v>
+      </c>
+      <c r="E1079" s="2"/>
       <c r="F1079" s="2" t="s">
-        <v>3319</v>
+        <v>3515</v>
       </c>
       <c r="G1079" s="2" t="s">
-        <v>3558</v>
+        <v>3224</v>
       </c>
       <c r="H1079" s="2" t="s">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1080" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B1080" s="2" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="C1080" s="4" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="D1080" s="2" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="E1080" s="2"/>
-      <c r="F1080" s="2" t="s">
-        <v>3515</v>
-      </c>
+      <c r="F1080" s="2"/>
       <c r="G1080" s="2" t="s">
-        <v>3224</v>
-      </c>
-      <c r="H1080" s="2" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>3215</v>
+      </c>
+      <c r="H1080" s="2"/>
+    </row>
+    <row r="1081" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1081" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B1081" s="2" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="C1081" s="4" t="s">
-        <v>3123</v>
+        <v>3126</v>
       </c>
       <c r="D1081" s="2" t="s">
-        <v>3124</v>
+        <v>3127</v>
       </c>
       <c r="E1081" s="2"/>
       <c r="F1081" s="2"/>
-      <c r="G1081" s="2" t="s">
-        <v>3215</v>
-      </c>
+      <c r="G1081" s="2"/>
       <c r="H1081" s="2"/>
     </row>
-    <row r="1082" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1082" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1082" s="2" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="C1082" s="4" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="D1082" s="2" t="s">
-        <v>3127</v>
+        <v>3130</v>
       </c>
       <c r="E1082" s="2"/>
       <c r="F1082" s="2"/>
-      <c r="G1082" s="2"/>
-      <c r="H1082" s="2"/>
+      <c r="G1082" s="2" t="s">
+        <v>3242</v>
+      </c>
+      <c r="H1082" s="2" t="s">
+        <v>3223</v>
+      </c>
     </row>
     <row r="1083" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1083" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B1083" s="2" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
       <c r="C1083" s="4" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="D1083" s="2" t="s">
-        <v>3130</v>
+        <v>3133</v>
       </c>
       <c r="E1083" s="2"/>
-      <c r="F1083" s="2"/>
+      <c r="F1083" s="2" t="s">
+        <v>3207</v>
+      </c>
       <c r="G1083" s="2" t="s">
-        <v>3242</v>
+        <v>3208</v>
       </c>
       <c r="H1083" s="2" t="s">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1084" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B1084" s="2" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
       <c r="C1084" s="4" t="s">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="D1084" s="2" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E1084" s="2"/>
+        <v>3136</v>
+      </c>
+      <c r="E1084" s="2" t="s">
+        <v>3199</v>
+      </c>
       <c r="F1084" s="2" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="G1084" s="2" t="s">
-        <v>3208</v>
+        <v>3200</v>
       </c>
       <c r="H1084" s="2" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1085" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B1085" s="2" t="s">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="C1085" s="4" t="s">
-        <v>3135</v>
+        <v>3138</v>
       </c>
       <c r="D1085" s="2" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="E1085" s="2" t="s">
-        <v>3199</v>
-      </c>
-      <c r="F1085" s="2" t="s">
-        <v>3192</v>
-      </c>
+        <v>3395</v>
+      </c>
+      <c r="F1085" s="2"/>
       <c r="G1085" s="2" t="s">
-        <v>3200</v>
-      </c>
-      <c r="H1085" s="2" t="s">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>3224</v>
+      </c>
+      <c r="H1085" s="2"/>
+    </row>
+    <row r="1086" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1086" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B1086" s="2" t="s">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="C1086" s="4" t="s">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="D1086" s="2" t="s">
-        <v>3139</v>
+        <v>3142</v>
       </c>
       <c r="E1086" s="2" t="s">
-        <v>3395</v>
+        <v>3210</v>
       </c>
       <c r="F1086" s="2"/>
       <c r="G1086" s="2" t="s">
@@ -35710,38 +35713,36 @@
     </row>
     <row r="1087" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1087" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B1087" s="2" t="s">
-        <v>3140</v>
+        <v>3143</v>
       </c>
       <c r="C1087" s="4" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="D1087" s="2" t="s">
-        <v>3142</v>
-      </c>
-      <c r="E1087" s="2" t="s">
-        <v>3210</v>
-      </c>
+        <v>3145</v>
+      </c>
+      <c r="E1087" s="2"/>
       <c r="F1087" s="2"/>
       <c r="G1087" s="2" t="s">
-        <v>3224</v>
+        <v>3559</v>
       </c>
       <c r="H1087" s="2"/>
     </row>
     <row r="1088" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1088" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B1088" s="2" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="C1088" s="4" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="D1088" s="2" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="E1088" s="2"/>
       <c r="F1088" s="2"/>
@@ -35750,58 +35751,58 @@
       </c>
       <c r="H1088" s="2"/>
     </row>
-    <row r="1089" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A1089" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B1089" s="2" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="C1089" s="4" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="D1089" s="2" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="E1089" s="2"/>
       <c r="F1089" s="2"/>
       <c r="G1089" s="2" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="H1089" s="2"/>
     </row>
-    <row r="1090" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1090" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B1090" s="2" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="C1090" s="4" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="D1090" s="2" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="E1090" s="2"/>
       <c r="F1090" s="2"/>
       <c r="G1090" s="2" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="H1090" s="2"/>
     </row>
-    <row r="1091" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A1091" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B1091" s="2" t="s">
-        <v>3152</v>
+        <v>3155</v>
       </c>
       <c r="C1091" s="4" t="s">
-        <v>3153</v>
+        <v>3156</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="E1091" s="2"/>
       <c r="F1091" s="2"/>
@@ -35810,18 +35811,18 @@
       </c>
       <c r="H1091" s="2"/>
     </row>
-    <row r="1092" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A1092" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B1092" s="2" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="C1092" s="4" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="D1092" s="2" t="s">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="E1092" s="2"/>
       <c r="F1092" s="2"/>
@@ -35830,57 +35831,61 @@
       </c>
       <c r="H1092" s="2"/>
     </row>
-    <row r="1093" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1093" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B1093" s="2" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="C1093" s="4" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
       <c r="D1093" s="2" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="E1093" s="2"/>
-      <c r="F1093" s="2"/>
+      <c r="F1093" s="2" t="s">
+        <v>3319</v>
+      </c>
       <c r="G1093" s="2" t="s">
-        <v>3561</v>
+        <v>3285</v>
       </c>
       <c r="H1093" s="2"/>
     </row>
     <row r="1094" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1094" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B1094" s="2" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="C1094" s="4" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="D1094" s="2" t="s">
-        <v>3163</v>
-      </c>
-      <c r="E1094" s="2"/>
+        <v>3166</v>
+      </c>
+      <c r="E1094" s="2" t="s">
+        <v>3210</v>
+      </c>
       <c r="F1094" s="2" t="s">
-        <v>3319</v>
+        <v>3244</v>
       </c>
       <c r="G1094" s="2" t="s">
-        <v>3285</v>
+        <v>3224</v>
       </c>
       <c r="H1094" s="2"/>
     </row>
     <row r="1095" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1095" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B1095" s="2" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="C1095" s="4" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="D1095" s="2" t="s">
         <v>3166</v>
@@ -35896,127 +35901,125 @@
       </c>
       <c r="H1095" s="2"/>
     </row>
-    <row r="1096" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1096" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B1096" s="2" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="C1096" s="4" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="D1096" s="2" t="s">
-        <v>3166</v>
-      </c>
-      <c r="E1096" s="2" t="s">
-        <v>3210</v>
-      </c>
+        <v>3171</v>
+      </c>
+      <c r="E1096" s="2"/>
       <c r="F1096" s="2" t="s">
-        <v>3244</v>
+        <v>3196</v>
       </c>
       <c r="G1096" s="2" t="s">
+        <v>3562</v>
+      </c>
+      <c r="H1096" s="2" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1097" s="2">
+        <v>1097</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C1097" s="4" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D1097" s="2" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E1097" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F1097" s="2"/>
+      <c r="G1097" s="2" t="s">
         <v>3224</v>
       </c>
-      <c r="H1096" s="2"/>
-    </row>
-    <row r="1097" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1097" s="2">
-        <v>1096</v>
-      </c>
-      <c r="B1097" s="2" t="s">
-        <v>3169</v>
-      </c>
-      <c r="C1097" s="4" t="s">
-        <v>3170</v>
-      </c>
-      <c r="D1097" s="2" t="s">
-        <v>3171</v>
-      </c>
-      <c r="E1097" s="2"/>
-      <c r="F1097" s="2" t="s">
-        <v>3196</v>
-      </c>
-      <c r="G1097" s="2" t="s">
-        <v>3562</v>
-      </c>
-      <c r="H1097" s="2" t="s">
-        <v>3412</v>
-      </c>
+      <c r="H1097" s="2"/>
     </row>
     <row r="1098" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1098" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B1098" s="2" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="C1098" s="4" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="D1098" s="2" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="E1098" s="2" t="s">
         <v>3199</v>
       </c>
-      <c r="F1098" s="2"/>
+      <c r="F1098" s="2" t="s">
+        <v>3232</v>
+      </c>
       <c r="G1098" s="2" t="s">
-        <v>3224</v>
-      </c>
-      <c r="H1098" s="2"/>
+        <v>3237</v>
+      </c>
+      <c r="H1098" s="2" t="s">
+        <v>3304</v>
+      </c>
     </row>
     <row r="1099" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1099" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B1099" s="2" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="C1099" s="4" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="D1099" s="2" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="E1099" s="2" t="s">
         <v>3199</v>
       </c>
       <c r="F1099" s="2" t="s">
-        <v>3232</v>
+        <v>3457</v>
       </c>
       <c r="G1099" s="2" t="s">
-        <v>3237</v>
+        <v>3200</v>
       </c>
       <c r="H1099" s="2" t="s">
-        <v>3304</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="1100" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1100" s="2">
-        <v>1099</v>
+      <c r="A1100" s="2" t="s">
+        <v>3639</v>
       </c>
       <c r="B1100" s="2" t="s">
-        <v>3178</v>
+        <v>3095</v>
       </c>
       <c r="C1100" s="4" t="s">
-        <v>3179</v>
+        <v>3096</v>
       </c>
       <c r="D1100" s="2" t="s">
-        <v>3180</v>
-      </c>
-      <c r="E1100" s="2" t="s">
-        <v>3199</v>
-      </c>
+        <v>3097</v>
+      </c>
+      <c r="E1100" s="2"/>
       <c r="F1100" s="2" t="s">
-        <v>3457</v>
+        <v>3205</v>
       </c>
       <c r="G1100" s="2" t="s">
-        <v>3200</v>
-      </c>
-      <c r="H1100" s="2" t="s">
-        <v>3297</v>
-      </c>
+        <v>3311</v>
+      </c>
+      <c r="H1100" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
